--- a/DCF/META.xlsx
+++ b/DCF/META.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS-001\Desktop\models\DCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58F9A83-B3E1-4CF2-858C-6400375FE959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F38BE1-5B94-42EA-A848-4E5ACE90D013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49650" yWindow="105" windowWidth="23775" windowHeight="20775" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -487,9 +487,6 @@
     <t>Q118</t>
   </si>
   <si>
-    <t>Stories?</t>
-  </si>
-  <si>
     <t>FCF</t>
   </si>
   <si>
@@ -755,6 +752,9 @@
   </si>
   <si>
     <t>ROW Revenue</t>
+  </si>
+  <si>
+    <t>Stories</t>
   </si>
 </sst>
 </file>
@@ -825,7 +825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -871,10 +871,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1334,22 +1330,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E1324B-BEE3-4317-A400-2CB53AA7AD6F}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
         <v>1</v>
       </c>
@@ -1357,7 +1353,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>29</v>
       </c>
@@ -1371,10 +1367,10 @@
         <v>2625</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>30</v>
       </c>
@@ -1389,9 +1385,9 @@
         <v>1162875</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>125</v>
+        <v>214</v>
       </c>
       <c r="L5" t="s">
         <v>4</v>
@@ -1399,7 +1395,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -1409,7 +1405,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
         <v>6</v>
       </c>
@@ -1418,7 +1414,7 @@
         <v>1162875</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1427,12 +1423,12 @@
         <v>22.492746615087036</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -1443,7 +1439,7 @@
         <v>1865.970703</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
         <v>91</v>
       </c>
@@ -1451,22 +1447,22 @@
         <v>366.55794300000002</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>92</v>
       </c>
@@ -1474,30 +1470,30 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>102</v>
       </c>
       <c r="L19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>94</v>
       </c>
@@ -1512,26 +1508,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C87D1C-8B34-4AB7-86D4-BE833131478C}">
   <dimension ref="A1:DA115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="AU43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BB43" sqref="BB43"/>
+      <selection pane="bottomRight" activeCell="AU48" sqref="AU48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="25" width="9.140625" style="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="25" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>124</v>
       </c>
@@ -1605,16 +1601,16 @@
         <v>120</v>
       </c>
       <c r="AA2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="AF2">
         <v>2013</v>
@@ -1686,7 +1682,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
@@ -1752,7 +1748,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="4" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
@@ -1815,7 +1811,7 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="5" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1884,7 +1880,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="6" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>101</v>
       </c>
@@ -1934,9 +1930,9 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
     </row>
-    <row r="7" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1947,47 +1943,47 @@
       <c r="I7" s="6"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9">
-        <f>+K27/K6</f>
+        <f t="shared" ref="K7:U7" si="1">+K27/K6</f>
         <v>42.969230769230769</v>
       </c>
       <c r="L7" s="9">
-        <f>+L27/L6</f>
+        <f t="shared" si="1"/>
         <v>45.752525252525253</v>
       </c>
       <c r="M7" s="9">
-        <f>+M27/M6</f>
+        <f t="shared" si="1"/>
         <v>50.95918367346939</v>
       </c>
       <c r="N7" s="9">
-        <f>+N27/N6</f>
+        <f t="shared" si="1"/>
         <v>67.435897435897431</v>
       </c>
       <c r="O7" s="9">
-        <f>+O27/O6</f>
+        <f t="shared" si="1"/>
         <v>61.01025641025641</v>
       </c>
       <c r="P7" s="9">
-        <f>+P27/P6</f>
+        <f t="shared" si="1"/>
         <v>68.543589743589749</v>
       </c>
       <c r="Q7" s="9">
-        <f>+Q27/Q6</f>
+        <f t="shared" si="1"/>
         <v>66.806122448979593</v>
       </c>
       <c r="R7" s="9">
-        <f>+R27/R6</f>
+        <f t="shared" si="1"/>
         <v>77.241025641025644</v>
       </c>
       <c r="S7" s="9">
-        <f>+S27/S6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T7" s="9">
-        <f>+T27/T6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U7" s="9">
-        <f>+U27/U6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V7" s="6"/>
@@ -1995,7 +1991,7 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
     </row>
-    <row r="8" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2064,7 +2060,7 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="9" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>101</v>
       </c>
@@ -2114,7 +2110,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2139,7 +2135,7 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
     </row>
-    <row r="11" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>98</v>
       </c>
@@ -2152,61 +2148,61 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="9">
-        <f>+K32/K4</f>
+        <f t="shared" ref="K11:W11" si="2">+K32/K4</f>
         <v>5.9321070234113709</v>
       </c>
       <c r="L11" s="9">
-        <f>+L32/L4</f>
+        <f t="shared" si="2"/>
         <v>5.9512738853503189</v>
       </c>
       <c r="M11" s="9">
-        <f>+M32/M4</f>
+        <f t="shared" si="2"/>
         <v>6.6884735202492216</v>
       </c>
       <c r="N11" s="9">
-        <f>+N32/N4</f>
+        <f t="shared" si="2"/>
         <v>8.5066666666666659</v>
       </c>
       <c r="O11" s="9">
-        <f>+O32/O4</f>
+        <f t="shared" si="2"/>
         <v>7.5857971014492751</v>
       </c>
       <c r="P11" s="9">
-        <f>+P32/P4</f>
+        <f t="shared" si="2"/>
         <v>8.2840455840455842</v>
       </c>
       <c r="Q11" s="9">
-        <f>+Q32/Q4</f>
+        <f t="shared" si="2"/>
         <v>8.1033519553072626</v>
       </c>
       <c r="R11" s="9">
-        <f>+R32/R4</f>
+        <f t="shared" si="2"/>
         <v>9.3791086350974933</v>
       </c>
       <c r="S11" s="9">
-        <f>+S32/S4</f>
+        <f t="shared" si="2"/>
         <v>7.6670329670329673</v>
       </c>
       <c r="T11" s="9">
-        <f>+T32/T4</f>
+        <f t="shared" si="2"/>
         <v>7.8964383561643832</v>
       </c>
       <c r="U11" s="9">
-        <f>+U32/U4</f>
+        <f t="shared" si="2"/>
         <v>7.4700808625336927</v>
       </c>
       <c r="V11" s="9">
-        <f>+V32/V4</f>
+        <f t="shared" si="2"/>
         <v>8.6002673796791438</v>
       </c>
       <c r="W11" s="9">
-        <f>+W32/W4</f>
+        <f t="shared" si="2"/>
         <v>7.5183727034120738</v>
       </c>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
     </row>
-    <row r="12" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>99</v>
       </c>
@@ -2220,31 +2216,31 @@
       <c r="J12" s="6"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9">
-        <f t="shared" ref="L12:R12" si="1">AVERAGE(K11:L11)</f>
+        <f t="shared" ref="L12:R12" si="3">AVERAGE(K11:L11)</f>
         <v>5.9416904543808453</v>
       </c>
       <c r="M12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.3198737027997698</v>
       </c>
       <c r="N12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.5975700934579438</v>
       </c>
       <c r="O12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.0462318840579705</v>
       </c>
       <c r="P12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.9349213427474297</v>
       </c>
       <c r="Q12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.1936987696764234</v>
       </c>
       <c r="R12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.7412302952023779</v>
       </c>
       <c r="S12" s="9">
@@ -2270,7 +2266,7 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
     </row>
-    <row r="13" spans="1:49" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>100</v>
       </c>
@@ -2288,15 +2284,15 @@
       <c r="N13" s="15"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16">
-        <f t="shared" ref="P13:R13" si="2">P12/L12-1</f>
+        <f t="shared" ref="P13:R13" si="4">P12/L12-1</f>
         <v>0.33546528612862403</v>
       </c>
       <c r="Q13" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.29649723317200616</v>
       </c>
       <c r="R13" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.15052973354325583</v>
       </c>
       <c r="S13" s="16">
@@ -2322,7 +2318,7 @@
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
     </row>
-    <row r="14" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>84</v>
       </c>
@@ -2335,61 +2331,61 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="9">
-        <f>+K31/K4</f>
+        <f t="shared" ref="K14:W14" si="5">+K31/K4</f>
         <v>5.8327759197324411</v>
       </c>
       <c r="L14" s="9">
-        <f>+L31/L4</f>
+        <f t="shared" si="5"/>
         <v>5.834713375796178</v>
       </c>
       <c r="M14" s="9">
-        <f>+M31/M4</f>
+        <f t="shared" si="5"/>
         <v>6.6109034267912774</v>
       </c>
       <c r="N14" s="9">
-        <f>+N31/N4</f>
+        <f t="shared" si="5"/>
         <v>8.2384848484848483</v>
       </c>
       <c r="O14" s="9">
-        <f>+O31/O4</f>
+        <f t="shared" si="5"/>
         <v>7.373623188405797</v>
       </c>
       <c r="P14" s="9">
-        <f>+P31/P4</f>
+        <f t="shared" si="5"/>
         <v>8.1424501424501425</v>
       </c>
       <c r="Q14" s="9">
-        <f>+Q31/Q4</f>
+        <f t="shared" si="5"/>
         <v>7.8983240223463689</v>
       </c>
       <c r="R14" s="9">
-        <f>+R31/R4</f>
+        <f t="shared" si="5"/>
         <v>9.0916434540389979</v>
       </c>
       <c r="S14" s="9">
-        <f>+S31/S4</f>
+        <f t="shared" si="5"/>
         <v>7.4170329670329673</v>
       </c>
       <c r="T14" s="9">
-        <f>+T31/T4</f>
+        <f t="shared" si="5"/>
         <v>7.7128767123287671</v>
       </c>
       <c r="U14" s="9">
-        <f>+U31/U4</f>
+        <f t="shared" si="5"/>
         <v>7.3415094339622637</v>
       </c>
       <c r="V14" s="9">
-        <f>+V31/V4</f>
+        <f t="shared" si="5"/>
         <v>8.3566844919786103</v>
       </c>
       <c r="W14" s="9">
-        <f>+W31/W4</f>
+        <f t="shared" si="5"/>
         <v>7.3755905511811024</v>
       </c>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
     </row>
-    <row r="15" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>85</v>
       </c>
@@ -2402,61 +2398,61 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="9">
-        <f>+K31/K3</f>
+        <f t="shared" ref="K15:W15" si="6">+K31/K3</f>
         <v>7.3898305084745761</v>
       </c>
       <c r="L15" s="9">
-        <f>+L31/L3</f>
+        <f t="shared" si="6"/>
         <v>7.4174089068825912</v>
       </c>
       <c r="M15" s="9">
-        <f>+M31/M3</f>
+        <f t="shared" si="6"/>
         <v>8.3547244094488189</v>
       </c>
       <c r="N15" s="9">
-        <f>+N31/N3</f>
+        <f t="shared" si="6"/>
         <v>10.456538461538461</v>
       </c>
       <c r="O15" s="9">
-        <f>+O31/O3</f>
+        <f t="shared" si="6"/>
         <v>9.3525735294117656</v>
       </c>
       <c r="P15" s="9">
-        <f>+P31/P3</f>
+        <f t="shared" si="6"/>
         <v>10.355072463768115</v>
       </c>
       <c r="Q15" s="9">
-        <f>+Q31/Q3</f>
+        <f t="shared" si="6"/>
         <v>10.062633451957295</v>
       </c>
       <c r="R15" s="9">
-        <f>+R31/R3</f>
+        <f t="shared" si="6"/>
         <v>11.574113475177304</v>
       </c>
       <c r="S15" s="9">
-        <f>+S31/S3</f>
+        <f t="shared" si="6"/>
         <v>9.4069686411149824</v>
       </c>
       <c r="T15" s="9">
-        <f>+T31/T3</f>
+        <f t="shared" si="6"/>
         <v>9.7750000000000004</v>
       </c>
       <c r="U15" s="9">
-        <f>+U31/U3</f>
+        <f t="shared" si="6"/>
         <v>9.2959044368600683</v>
       </c>
       <c r="V15" s="9">
-        <f>+V31/V3</f>
+        <f t="shared" si="6"/>
         <v>10.558783783783785</v>
       </c>
       <c r="W15" s="9">
-        <f>+W31/W3</f>
+        <f t="shared" si="6"/>
         <v>9.3049668874172191</v>
       </c>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
     </row>
-    <row r="16" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>99</v>
       </c>
@@ -2470,31 +2466,31 @@
       <c r="J16" s="6"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9">
-        <f t="shared" ref="L16:R16" si="3">AVERAGE(K15:L15)</f>
+        <f t="shared" ref="L16:R16" si="7">AVERAGE(K15:L15)</f>
         <v>7.4036197076785832</v>
       </c>
       <c r="M16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.8860666581657046</v>
       </c>
       <c r="N16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.405631435493639</v>
       </c>
       <c r="O16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.9045559954751141</v>
       </c>
       <c r="P16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.8538229965899404</v>
       </c>
       <c r="Q16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10.208852957862705</v>
       </c>
       <c r="R16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10.818373463567299</v>
       </c>
       <c r="S16" s="9">
@@ -2502,11 +2498,11 @@
         <v>10.490541058146142</v>
       </c>
       <c r="T16" s="9">
-        <f t="shared" ref="T16:U16" si="4">AVERAGE(S15:T15)</f>
+        <f t="shared" ref="T16:U16" si="8">AVERAGE(S15:T15)</f>
         <v>9.5909843205574923</v>
       </c>
       <c r="U16" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.5354522184300343</v>
       </c>
       <c r="V16" s="9">
@@ -2520,7 +2516,7 @@
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
     </row>
-    <row r="17" spans="2:49" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:49" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>100</v>
       </c>
@@ -2538,15 +2534,15 @@
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
       <c r="P17" s="16">
-        <f t="shared" ref="P17:R17" si="5">P16/L16-1</f>
+        <f t="shared" ref="P17:R17" si="9">P16/L16-1</f>
         <v>0.33094667009573109</v>
       </c>
       <c r="Q17" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.29454307202588104</v>
       </c>
       <c r="R17" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.15020172093310546</v>
       </c>
       <c r="S17" s="16">
@@ -2572,7 +2568,7 @@
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
     </row>
-    <row r="18" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -2597,9 +2593,9 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
     </row>
-    <row r="19" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -2645,9 +2641,9 @@
         <v>15451</v>
       </c>
     </row>
-    <row r="20" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -2693,9 +2689,9 @@
         <v>8327</v>
       </c>
     </row>
-    <row r="21" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -2741,9 +2737,9 @@
         <v>7338</v>
       </c>
     </row>
-    <row r="22" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -2789,7 +2785,7 @@
         <v>4519</v>
       </c>
     </row>
-    <row r="23" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -2814,9 +2810,9 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
     </row>
-    <row r="24" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -2863,7 +2859,7 @@
         <v>4093</v>
       </c>
     </row>
-    <row r="25" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>107</v>
       </c>
@@ -2912,7 +2908,7 @@
         <v>10312</v>
       </c>
     </row>
-    <row r="26" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>104</v>
       </c>
@@ -2961,7 +2957,7 @@
         <v>8404</v>
       </c>
     </row>
-    <row r="27" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>103</v>
       </c>
@@ -3010,7 +3006,7 @@
         <v>13646</v>
       </c>
     </row>
-    <row r="28" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -3035,7 +3031,7 @@
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
     </row>
-    <row r="29" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
@@ -3123,7 +3119,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="30" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>83</v>
       </c>
@@ -3190,7 +3186,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="31" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>82</v>
       </c>
@@ -3223,31 +3219,31 @@
         <v>17440</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" ref="L31:T31" si="6">SUM(L24:L27)</f>
+        <f t="shared" ref="L31:R31" si="10">SUM(L24:L27)</f>
         <v>18321</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>21221</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>27187</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>25439</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>28580</v>
       </c>
       <c r="Q31" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>28276</v>
       </c>
       <c r="R31" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>32639</v>
       </c>
       <c r="S31" s="6">
@@ -3319,36 +3315,36 @@
         <v>114934</v>
       </c>
     </row>
-    <row r="32" spans="2:49" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:49" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" ref="C32:I32" si="7">SUM(C29:C31)</f>
+        <f t="shared" ref="C32:I32" si="11">SUM(C29:C31)</f>
         <v>11966</v>
       </c>
       <c r="D32" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13231</v>
       </c>
       <c r="E32" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13727</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>16914</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" ref="G32" si="8">SUM(G29:G31)</f>
+        <f t="shared" ref="G32" si="12">SUM(G29:G31)</f>
         <v>15077</v>
       </c>
       <c r="H32" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>16886</v>
       </c>
       <c r="I32" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>17652</v>
       </c>
       <c r="J32" s="8">
@@ -3405,51 +3401,51 @@
         <v>31999</v>
       </c>
       <c r="Y32" s="8">
-        <f t="shared" ref="Y32:AD32" si="9">SUM(Y29:Y31)</f>
+        <f t="shared" ref="Y32:AD32" si="13">SUM(Y29:Y31)</f>
         <v>34146</v>
       </c>
       <c r="Z32" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>40111</v>
       </c>
       <c r="AA32" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>36455</v>
       </c>
       <c r="AB32" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>37500</v>
       </c>
       <c r="AC32" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>37560.600000000006</v>
       </c>
       <c r="AD32" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>44122.100000000006</v>
       </c>
       <c r="AF32" s="7">
-        <f t="shared" ref="AF32:AK32" si="10">SUM(AF29:AF31)</f>
+        <f t="shared" ref="AF32:AK32" si="14">SUM(AF29:AF31)</f>
         <v>7872</v>
       </c>
       <c r="AG32" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>12466</v>
       </c>
       <c r="AH32" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17928</v>
       </c>
       <c r="AI32" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>27638</v>
       </c>
       <c r="AJ32" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>40653</v>
       </c>
       <c r="AK32" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>55838</v>
       </c>
       <c r="AL32" s="7">
@@ -3457,11 +3453,11 @@
         <v>70697</v>
       </c>
       <c r="AM32" s="7">
-        <f t="shared" ref="AM32:AN32" si="11">SUM(AM29:AM31)</f>
+        <f t="shared" ref="AM32:AN32" si="15">SUM(AM29:AM31)</f>
         <v>85965</v>
       </c>
       <c r="AN32" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>117929</v>
       </c>
       <c r="AO32" s="7">
@@ -3485,23 +3481,23 @@
         <v>179761.54350000003</v>
       </c>
       <c r="AT32" s="7">
-        <f t="shared" ref="AT32:AW32" si="12">+AS32*1.03</f>
+        <f t="shared" ref="AT32:AW32" si="16">+AS32*1.03</f>
         <v>185154.38980500004</v>
       </c>
       <c r="AU32" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>190709.02149915005</v>
       </c>
       <c r="AV32" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>196430.29214412457</v>
       </c>
       <c r="AW32" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>202323.20090844831</v>
       </c>
     </row>
-    <row r="33" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
@@ -3601,88 +3597,88 @@
         <v>22155.709999999992</v>
       </c>
       <c r="AP33" s="3">
-        <f t="shared" ref="AP33:AW33" si="13">+AP32-AP34</f>
+        <f t="shared" ref="AP33:AW33" si="17">+AP32-AP34</f>
         <v>25631.189999999988</v>
       </c>
       <c r="AQ33" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>29571.163</v>
       </c>
       <c r="AR33" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>32528.279299999995</v>
       </c>
       <c r="AS33" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>34154.693265000009</v>
       </c>
       <c r="AT33" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>35179.334062949987</v>
       </c>
       <c r="AU33" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>36234.714084838488</v>
       </c>
       <c r="AV33" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>37321.75550738367</v>
       </c>
       <c r="AW33" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>38441.408172605181</v>
       </c>
     </row>
-    <row r="34" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C34" s="6">
-        <f t="shared" ref="C34:D34" si="14">+C32-C33</f>
+        <f t="shared" ref="C34:D34" si="18">+C32-C33</f>
         <v>10039</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>11017</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" ref="E34:G34" si="15">+E32-E33</f>
+        <f t="shared" ref="E34:G34" si="19">+E32-E33</f>
         <v>11309</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>14118</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>12261</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" ref="H34" si="16">+H32-H33</f>
+        <f t="shared" ref="H34" si="20">+H32-H33</f>
         <v>13579</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" ref="I34:J34" si="17">+I32-I33</f>
+        <f t="shared" ref="I34:J34" si="21">+I32-I33</f>
         <v>14497</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>17590</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" ref="K34:N34" si="18">+K32-K33</f>
+        <f t="shared" ref="K34:N34" si="22">+K32-K33</f>
         <v>14278</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>14858</v>
       </c>
       <c r="M34" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>17276</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>22862</v>
       </c>
       <c r="O34" s="6">
@@ -3690,15 +3686,15 @@
         <v>21040</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" ref="P34:R34" si="19">+P32-P33</f>
+        <f t="shared" ref="P34:R34" si="23">+P32-P33</f>
         <v>23678</v>
       </c>
       <c r="Q34" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>23239</v>
       </c>
       <c r="R34" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>27323</v>
       </c>
       <c r="S34" s="6">
@@ -3730,7 +3726,7 @@
         <v>27936</v>
       </c>
       <c r="Z34" s="6">
-        <f t="shared" ref="Z34" si="20">+Z32*0.79</f>
+        <f t="shared" ref="Z34" si="24">+Z32*0.79</f>
         <v>31687.690000000002</v>
       </c>
       <c r="AA34" s="6">
@@ -3753,7 +3749,7 @@
         <v>69273</v>
       </c>
       <c r="AN34" s="3">
-        <f t="shared" ref="AN34" si="21">+AN32-AN33</f>
+        <f t="shared" ref="AN34" si="25">+AN32-AN33</f>
         <v>95280</v>
       </c>
       <c r="AO34" s="3">
@@ -3761,39 +3757,39 @@
         <v>94453.290000000008</v>
       </c>
       <c r="AP34" s="3">
-        <f t="shared" ref="AP34:AW34" si="22">+AP32*0.81</f>
+        <f t="shared" ref="AP34:AW34" si="26">+AP32*0.81</f>
         <v>109269.81000000001</v>
       </c>
       <c r="AQ34" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>126066.53700000001</v>
       </c>
       <c r="AR34" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>138673.19070000004</v>
       </c>
       <c r="AS34" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>145606.85023500002</v>
       </c>
       <c r="AT34" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>149975.05574205006</v>
       </c>
       <c r="AU34" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>154474.30741431157</v>
       </c>
       <c r="AV34" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>159108.5366367409</v>
       </c>
       <c r="AW34" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>163881.79273584313</v>
       </c>
     </row>
-    <row r="35" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>38</v>
       </c>
@@ -3889,43 +3885,43 @@
         <v>24655</v>
       </c>
       <c r="AO35" s="3">
-        <f t="shared" ref="AO35:AT35" si="23">+AN35*0.9</f>
+        <f t="shared" ref="AO35:AT35" si="27">+AN35*0.9</f>
         <v>22189.5</v>
       </c>
       <c r="AP35" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>19970.55</v>
       </c>
       <c r="AQ35" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>17973.494999999999</v>
       </c>
       <c r="AR35" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>16176.145499999999</v>
       </c>
       <c r="AS35" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>14558.530949999998</v>
       </c>
       <c r="AT35" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>13102.677854999998</v>
       </c>
       <c r="AU35" s="3">
-        <f t="shared" ref="AU35:AW35" si="24">+AT35*0.9</f>
+        <f t="shared" ref="AU35:AW35" si="28">+AT35*0.9</f>
         <v>11792.410069499998</v>
       </c>
       <c r="AV35" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>10613.169062549998</v>
       </c>
       <c r="AW35" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9551.8521562949991</v>
       </c>
     </row>
-    <row r="36" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>40</v>
       </c>
@@ -3990,7 +3986,7 @@
         <v>4574</v>
       </c>
       <c r="W36" s="6">
-        <f t="shared" ref="W36:W37" si="25">+S36*0.9</f>
+        <f t="shared" ref="W36:W37" si="29">+S36*0.9</f>
         <v>2980.8</v>
       </c>
       <c r="X36" s="6">
@@ -4025,39 +4021,39 @@
         <v>14043</v>
       </c>
       <c r="AP36" s="3">
-        <f t="shared" ref="AP36:AW36" si="26">+AO36</f>
+        <f t="shared" ref="AP36:AW36" si="30">+AO36</f>
         <v>14043</v>
       </c>
       <c r="AQ36" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>14043</v>
       </c>
       <c r="AR36" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>14043</v>
       </c>
       <c r="AS36" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>14043</v>
       </c>
       <c r="AT36" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>14043</v>
       </c>
       <c r="AU36" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>14043</v>
       </c>
       <c r="AV36" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>14043</v>
       </c>
       <c r="AW36" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>14043</v>
       </c>
     </row>
-    <row r="37" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>39</v>
       </c>
@@ -4124,7 +4120,7 @@
         <v>3085</v>
       </c>
       <c r="W37" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>2124</v>
       </c>
       <c r="X37" s="6">
@@ -4157,108 +4153,108 @@
         <v>9829</v>
       </c>
       <c r="AO37" s="3">
-        <f t="shared" ref="AO37:AW37" si="27">+AN37</f>
+        <f t="shared" ref="AO37:AW37" si="31">+AN37</f>
         <v>9829</v>
       </c>
       <c r="AP37" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>9829</v>
       </c>
       <c r="AQ37" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>9829</v>
       </c>
       <c r="AR37" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>9829</v>
       </c>
       <c r="AS37" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>9829</v>
       </c>
       <c r="AT37" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>9829</v>
       </c>
       <c r="AU37" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>9829</v>
       </c>
       <c r="AV37" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>9829</v>
       </c>
       <c r="AW37" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>9829</v>
       </c>
     </row>
-    <row r="38" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="6">
-        <f t="shared" ref="C38:D38" si="28">+C37+C36+C35</f>
+        <f t="shared" ref="C38:D38" si="32">+C37+C36+C35</f>
         <v>4590</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5154</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" ref="E38:G38" si="29">+E37+E36+E35</f>
+        <f t="shared" ref="E38:G38" si="33">+E37+E36+E35</f>
         <v>5528</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>6298</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5944</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" ref="H38:I38" si="30">+H37+H36+H35</f>
+        <f t="shared" ref="H38:I38" si="34">+H37+H36+H35</f>
         <v>6953</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>7312</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" ref="J38:K38" si="31">+J37+J36+J35</f>
+        <f t="shared" ref="J38:K38" si="35">+J37+J36+J35</f>
         <v>8732</v>
       </c>
       <c r="K38" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>8385</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" ref="L38" si="32">+L37+L36+L35</f>
+        <f t="shared" ref="L38" si="36">+L37+L36+L35</f>
         <v>8895</v>
       </c>
       <c r="M38" s="6">
-        <f t="shared" ref="M38" si="33">+M37+M36+M35</f>
+        <f t="shared" ref="M38" si="37">+M37+M36+M35</f>
         <v>9236</v>
       </c>
       <c r="N38" s="6">
-        <f t="shared" ref="N38" si="34">+N37+N36+N35</f>
+        <f t="shared" ref="N38" si="38">+N37+N36+N35</f>
         <v>10087</v>
       </c>
       <c r="O38" s="6">
-        <f t="shared" ref="O38:R38" si="35">+O37+O36+O35</f>
+        <f t="shared" ref="O38:R38" si="39">+O37+O36+O35</f>
         <v>9662</v>
       </c>
       <c r="P38" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>11311</v>
       </c>
       <c r="Q38" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>12816</v>
       </c>
       <c r="R38" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>14738</v>
       </c>
       <c r="S38" s="6">
@@ -4266,35 +4262,35 @@
         <v>13379</v>
       </c>
       <c r="T38" s="6">
-        <f t="shared" ref="T38:V38" si="36">+T37+T36+T35</f>
+        <f t="shared" ref="T38:V38" si="40">+T37+T36+T35</f>
         <v>15272</v>
       </c>
       <c r="U38" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>16334</v>
       </c>
       <c r="V38" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>17430</v>
       </c>
       <c r="W38" s="6">
-        <f t="shared" ref="W38:AA38" si="37">+W37+W36+W35</f>
+        <f t="shared" ref="W38:AA38" si="41">+W37+W36+W35</f>
         <v>12041.1</v>
       </c>
       <c r="X38" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>14792</v>
       </c>
       <c r="Y38" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>14188</v>
       </c>
       <c r="Z38" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>16032</v>
       </c>
       <c r="AA38" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>15997</v>
       </c>
       <c r="AB38" s="6"/>
@@ -4313,112 +4309,112 @@
         <v>36602</v>
       </c>
       <c r="AN38" s="3">
-        <f t="shared" ref="AN38" si="38">SUM(AN35:AN37)</f>
+        <f t="shared" ref="AN38" si="42">SUM(AN35:AN37)</f>
         <v>48527</v>
       </c>
       <c r="AO38" s="3">
-        <f t="shared" ref="AO38" si="39">SUM(AO35:AO37)</f>
+        <f t="shared" ref="AO38" si="43">SUM(AO35:AO37)</f>
         <v>46061.5</v>
       </c>
       <c r="AP38" s="3">
-        <f t="shared" ref="AP38" si="40">SUM(AP35:AP37)</f>
+        <f t="shared" ref="AP38" si="44">SUM(AP35:AP37)</f>
         <v>43842.55</v>
       </c>
       <c r="AQ38" s="3">
-        <f t="shared" ref="AQ38" si="41">SUM(AQ35:AQ37)</f>
+        <f t="shared" ref="AQ38" si="45">SUM(AQ35:AQ37)</f>
         <v>41845.494999999995</v>
       </c>
       <c r="AR38" s="3">
-        <f t="shared" ref="AR38" si="42">SUM(AR35:AR37)</f>
+        <f t="shared" ref="AR38" si="46">SUM(AR35:AR37)</f>
         <v>40048.145499999999</v>
       </c>
       <c r="AS38" s="3">
-        <f t="shared" ref="AS38" si="43">SUM(AS35:AS37)</f>
+        <f t="shared" ref="AS38" si="47">SUM(AS35:AS37)</f>
         <v>38430.53095</v>
       </c>
       <c r="AT38" s="3">
-        <f t="shared" ref="AT38" si="44">SUM(AT35:AT37)</f>
+        <f t="shared" ref="AT38" si="48">SUM(AT35:AT37)</f>
         <v>36974.677855000002</v>
       </c>
       <c r="AU38" s="3">
-        <f t="shared" ref="AU38" si="45">SUM(AU35:AU37)</f>
+        <f t="shared" ref="AU38" si="49">SUM(AU35:AU37)</f>
         <v>35664.410069499994</v>
       </c>
       <c r="AV38" s="3">
-        <f t="shared" ref="AV38" si="46">SUM(AV35:AV37)</f>
+        <f t="shared" ref="AV38" si="50">SUM(AV35:AV37)</f>
         <v>34485.169062549998</v>
       </c>
       <c r="AW38" s="3">
-        <f t="shared" ref="AW38" si="47">SUM(AW35:AW37)</f>
+        <f t="shared" ref="AW38" si="51">SUM(AW35:AW37)</f>
         <v>33423.852156294997</v>
       </c>
     </row>
-    <row r="39" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C39" s="6">
-        <f t="shared" ref="C39:D39" si="48">+C34-C38</f>
+        <f t="shared" ref="C39:D39" si="52">+C34-C38</f>
         <v>5449</v>
       </c>
       <c r="D39" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>5863</v>
       </c>
       <c r="E39" s="6">
-        <f t="shared" ref="E39:G39" si="49">+E34-E38</f>
+        <f t="shared" ref="E39:G39" si="53">+E34-E38</f>
         <v>5781</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>7820</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>6317</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" ref="H39:I39" si="50">+H34-H38</f>
+        <f t="shared" ref="H39:I39" si="54">+H34-H38</f>
         <v>6626</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>7185</v>
       </c>
       <c r="J39" s="6">
-        <f t="shared" ref="J39:K39" si="51">+J34-J38</f>
+        <f t="shared" ref="J39:K39" si="55">+J34-J38</f>
         <v>8858</v>
       </c>
       <c r="K39" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>5893</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" ref="L39" si="52">+L34-L38</f>
+        <f t="shared" ref="L39" si="56">+L34-L38</f>
         <v>5963</v>
       </c>
       <c r="M39" s="6">
-        <f t="shared" ref="M39" si="53">+M34-M38</f>
+        <f t="shared" ref="M39" si="57">+M34-M38</f>
         <v>8040</v>
       </c>
       <c r="N39" s="6">
-        <f t="shared" ref="N39" si="54">+N34-N38</f>
+        <f t="shared" ref="N39" si="58">+N34-N38</f>
         <v>12775</v>
       </c>
       <c r="O39" s="6">
-        <f t="shared" ref="O39:R39" si="55">+O34-O38</f>
+        <f t="shared" ref="O39:R39" si="59">+O34-O38</f>
         <v>11378</v>
       </c>
       <c r="P39" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>12367</v>
       </c>
       <c r="Q39" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>10423</v>
       </c>
       <c r="R39" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>12585</v>
       </c>
       <c r="S39" s="6">
@@ -4426,35 +4422,35 @@
         <v>8524</v>
       </c>
       <c r="T39" s="6">
-        <f t="shared" ref="T39:V39" si="56">+T34-T38</f>
+        <f t="shared" ref="T39:V39" si="60">+T34-T38</f>
         <v>8358</v>
       </c>
       <c r="U39" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>5664</v>
       </c>
       <c r="V39" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>6399</v>
       </c>
       <c r="W39" s="6">
-        <f t="shared" ref="W39:AA39" si="57">+W34-W38</f>
+        <f t="shared" ref="W39:AA39" si="61">+W34-W38</f>
         <v>10588.449999999999</v>
       </c>
       <c r="X39" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>11262</v>
       </c>
       <c r="Y39" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>13748</v>
       </c>
       <c r="Z39" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>15655.690000000002</v>
       </c>
       <c r="AA39" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>13818</v>
       </c>
       <c r="AB39" s="6"/>
@@ -4473,47 +4469,47 @@
         <v>32671</v>
       </c>
       <c r="AN39" s="3">
-        <f t="shared" ref="AN39" si="58">AN34-AN38</f>
+        <f t="shared" ref="AN39" si="62">AN34-AN38</f>
         <v>46753</v>
       </c>
       <c r="AO39" s="3">
-        <f t="shared" ref="AO39" si="59">AO34-AO38</f>
+        <f t="shared" ref="AO39" si="63">AO34-AO38</f>
         <v>48391.790000000008</v>
       </c>
       <c r="AP39" s="3">
-        <f t="shared" ref="AP39" si="60">AP34-AP38</f>
+        <f t="shared" ref="AP39" si="64">AP34-AP38</f>
         <v>65427.260000000009</v>
       </c>
       <c r="AQ39" s="3">
-        <f t="shared" ref="AQ39" si="61">AQ34-AQ38</f>
+        <f t="shared" ref="AQ39" si="65">AQ34-AQ38</f>
         <v>84221.042000000016</v>
       </c>
       <c r="AR39" s="3">
-        <f t="shared" ref="AR39" si="62">AR34-AR38</f>
+        <f t="shared" ref="AR39" si="66">AR34-AR38</f>
         <v>98625.045200000037</v>
       </c>
       <c r="AS39" s="3">
-        <f t="shared" ref="AS39" si="63">AS34-AS38</f>
+        <f t="shared" ref="AS39" si="67">AS34-AS38</f>
         <v>107176.31928500002</v>
       </c>
       <c r="AT39" s="3">
-        <f t="shared" ref="AT39" si="64">AT34-AT38</f>
+        <f t="shared" ref="AT39" si="68">AT34-AT38</f>
         <v>113000.37788705005</v>
       </c>
       <c r="AU39" s="3">
-        <f t="shared" ref="AU39" si="65">AU34-AU38</f>
+        <f t="shared" ref="AU39" si="69">AU34-AU38</f>
         <v>118809.89734481157</v>
       </c>
       <c r="AV39" s="3">
-        <f t="shared" ref="AV39" si="66">AV34-AV38</f>
+        <f t="shared" ref="AV39" si="70">AV34-AV38</f>
         <v>124623.3675741909</v>
       </c>
       <c r="AW39" s="3">
-        <f t="shared" ref="AW39" si="67">AW34-AW38</f>
+        <f t="shared" ref="AW39" si="71">AW34-AW38</f>
         <v>130457.94057954813</v>
       </c>
     </row>
-    <row r="40" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>43</v>
       </c>
@@ -4609,104 +4605,104 @@
         <v>531</v>
       </c>
       <c r="AP40" s="3">
-        <f t="shared" ref="AP40:AW40" si="68">+AO59*$BB$58</f>
+        <f t="shared" ref="AP40:AW40" si="72">+AO59*$BB$58</f>
         <v>0</v>
       </c>
       <c r="AQ40" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1073.0070640000004</v>
       </c>
       <c r="AR40" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>2471.8294686496006</v>
       </c>
       <c r="AS40" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>4129.8182132154543</v>
       </c>
       <c r="AT40" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>5955.2388681861885</v>
       </c>
       <c r="AU40" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>7906.1109829720635</v>
       </c>
       <c r="AV40" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>9984.2535195477139</v>
       </c>
       <c r="AW40" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>12191.818505485027</v>
       </c>
     </row>
-    <row r="41" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C41" s="6">
-        <f t="shared" ref="C41:D41" si="69">+C39+C40</f>
+        <f t="shared" ref="C41:D41" si="73">+C39+C40</f>
         <v>5610</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>5868</v>
       </c>
       <c r="E41" s="6">
-        <f t="shared" ref="E41:G41" si="70">+E39+E40</f>
+        <f t="shared" ref="E41:G41" si="74">+E39+E40</f>
         <v>5912</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>7971</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>6523</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" ref="H41" si="71">+H39+H40</f>
+        <f t="shared" ref="H41" si="75">+H39+H40</f>
         <v>6832</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" ref="I41:J41" si="72">+I39+I40</f>
+        <f t="shared" ref="I41:J41" si="76">+I39+I40</f>
         <v>7329</v>
       </c>
       <c r="J41" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>9169</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" ref="K41:R41" si="73">+K39+K40</f>
+        <f t="shared" ref="K41:R41" si="77">+K39+K40</f>
         <v>5861</v>
       </c>
       <c r="L41" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>6131</v>
       </c>
       <c r="M41" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>8133</v>
       </c>
       <c r="N41" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>13055</v>
       </c>
       <c r="O41" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>11503</v>
       </c>
       <c r="P41" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>12513</v>
       </c>
       <c r="Q41" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>10565</v>
       </c>
       <c r="R41" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>12702</v>
       </c>
       <c r="S41" s="6">
@@ -4714,35 +4710,35 @@
         <v>8908</v>
       </c>
       <c r="T41" s="6">
-        <f t="shared" ref="T41:AA41" si="74">+T39+T40</f>
+        <f t="shared" ref="T41:AA41" si="78">+T39+T40</f>
         <v>8186</v>
       </c>
       <c r="U41" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>5576</v>
       </c>
       <c r="V41" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>6149</v>
       </c>
       <c r="W41" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>10338.449999999999</v>
       </c>
       <c r="X41" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>11163</v>
       </c>
       <c r="Y41" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>14020</v>
       </c>
       <c r="Z41" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>16079.690000000002</v>
       </c>
       <c r="AA41" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>14183</v>
       </c>
       <c r="AB41" s="6"/>
@@ -4761,47 +4757,47 @@
         <v>33180</v>
       </c>
       <c r="AN41" s="3">
-        <f t="shared" ref="AN41" si="75">+AN39+AN40</f>
+        <f t="shared" ref="AN41" si="79">+AN39+AN40</f>
         <v>47284</v>
       </c>
       <c r="AO41" s="3">
-        <f t="shared" ref="AO41" si="76">+AO39+AO40</f>
+        <f t="shared" ref="AO41" si="80">+AO39+AO40</f>
         <v>48391.790000000008</v>
       </c>
       <c r="AP41" s="3">
-        <f t="shared" ref="AP41" si="77">+AP39+AP40</f>
+        <f t="shared" ref="AP41" si="81">+AP39+AP40</f>
         <v>65427.260000000009</v>
       </c>
       <c r="AQ41" s="3">
-        <f t="shared" ref="AQ41" si="78">+AQ39+AQ40</f>
+        <f t="shared" ref="AQ41" si="82">+AQ39+AQ40</f>
         <v>85294.049064000021</v>
       </c>
       <c r="AR41" s="3">
-        <f t="shared" ref="AR41" si="79">+AR39+AR40</f>
+        <f t="shared" ref="AR41" si="83">+AR39+AR40</f>
         <v>101096.87466864963</v>
       </c>
       <c r="AS41" s="3">
-        <f t="shared" ref="AS41" si="80">+AS39+AS40</f>
+        <f t="shared" ref="AS41" si="84">+AS39+AS40</f>
         <v>111306.13749821548</v>
       </c>
       <c r="AT41" s="3">
-        <f t="shared" ref="AT41" si="81">+AT39+AT40</f>
+        <f t="shared" ref="AT41" si="85">+AT39+AT40</f>
         <v>118955.61675523625</v>
       </c>
       <c r="AU41" s="3">
-        <f t="shared" ref="AU41" si="82">+AU39+AU40</f>
+        <f t="shared" ref="AU41" si="86">+AU39+AU40</f>
         <v>126716.00832778364</v>
       </c>
       <c r="AV41" s="3">
-        <f t="shared" ref="AV41" si="83">+AV39+AV40</f>
+        <f t="shared" ref="AV41" si="87">+AV39+AV40</f>
         <v>134607.62109373862</v>
       </c>
       <c r="AW41" s="3">
-        <f t="shared" ref="AW41" si="84">+AW39+AW40</f>
+        <f t="shared" ref="AW41" si="88">+AW39+AW40</f>
         <v>142649.75908503315</v>
       </c>
     </row>
-    <row r="42" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>45</v>
       </c>
@@ -4867,7 +4863,7 @@
         <v>1497</v>
       </c>
       <c r="W42" s="6">
-        <f t="shared" ref="W42" si="85">+W41*0.19</f>
+        <f t="shared" ref="W42" si="89">+W41*0.19</f>
         <v>1964.3054999999997</v>
       </c>
       <c r="X42" s="6">
@@ -4903,104 +4899,104 @@
         <v>8710.5222000000012</v>
       </c>
       <c r="AP42" s="3">
-        <f t="shared" ref="AP42:AW42" si="86">+AP41*0.18</f>
+        <f t="shared" ref="AP42:AW42" si="90">+AP41*0.18</f>
         <v>11776.906800000001</v>
       </c>
       <c r="AQ42" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>15352.928831520003</v>
       </c>
       <c r="AR42" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>18197.437440356935</v>
       </c>
       <c r="AS42" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>20035.104749678787</v>
       </c>
       <c r="AT42" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>21412.011015942524</v>
       </c>
       <c r="AU42" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>22808.881499001054</v>
       </c>
       <c r="AV42" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>24229.371796872951</v>
       </c>
       <c r="AW42" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>25676.956635305967</v>
       </c>
     </row>
-    <row r="43" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" ref="C43:D43" si="87">+C41-C42</f>
+        <f t="shared" ref="C43:D43" si="91">+C41-C42</f>
         <v>4987</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>5106</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" ref="E43:G43" si="88">+E41-E42</f>
+        <f t="shared" ref="E43:G43" si="92">+E41-E42</f>
         <v>5137</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>6882</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>4307</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" ref="H43" si="89">+H41-H42</f>
+        <f t="shared" ref="H43" si="93">+H41-H42</f>
         <v>4616</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" ref="I43:J43" si="90">+I41-I42</f>
+        <f t="shared" ref="I43:J43" si="94">+I41-I42</f>
         <v>6091</v>
       </c>
       <c r="J43" s="6">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>7349</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" ref="K43:L43" si="91">+K41-K42</f>
+        <f t="shared" ref="K43:L43" si="95">+K41-K42</f>
         <v>4902</v>
       </c>
       <c r="L43" s="6">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>5178</v>
       </c>
       <c r="M43" s="6">
-        <f t="shared" ref="M43:R43" si="92">+M41-M42</f>
+        <f t="shared" ref="M43:R43" si="96">+M41-M42</f>
         <v>7846</v>
       </c>
       <c r="N43" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>11219</v>
       </c>
       <c r="O43" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>9497</v>
       </c>
       <c r="P43" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>10394</v>
       </c>
       <c r="Q43" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>9194</v>
       </c>
       <c r="R43" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>10285</v>
       </c>
       <c r="S43" s="6">
@@ -5008,35 +5004,35 @@
         <v>7465</v>
       </c>
       <c r="T43" s="6">
-        <f t="shared" ref="T43:V43" si="93">+T41-T42</f>
+        <f t="shared" ref="T43:V43" si="97">+T41-T42</f>
         <v>6687</v>
       </c>
       <c r="U43" s="6">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>4395</v>
       </c>
       <c r="V43" s="6">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>4652</v>
       </c>
       <c r="W43" s="6">
-        <f t="shared" ref="W43:AA43" si="94">+W41-W42</f>
+        <f t="shared" ref="W43:AA43" si="98">+W41-W42</f>
         <v>8374.1444999999985</v>
       </c>
       <c r="X43" s="6">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>9658</v>
       </c>
       <c r="Y43" s="6">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>11583</v>
       </c>
       <c r="Z43" s="6">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>13288.690000000002</v>
       </c>
       <c r="AA43" s="6">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>12369</v>
       </c>
       <c r="AB43" s="6"/>
@@ -5055,336 +5051,336 @@
         <v>29146</v>
       </c>
       <c r="AN43" s="3">
-        <f t="shared" ref="AN43" si="95">+AN41-AN42</f>
+        <f t="shared" ref="AN43" si="99">+AN41-AN42</f>
         <v>39370</v>
       </c>
       <c r="AO43" s="3">
-        <f t="shared" ref="AO43" si="96">+AO41-AO42</f>
+        <f t="shared" ref="AO43" si="100">+AO41-AO42</f>
         <v>39681.267800000009</v>
       </c>
       <c r="AP43" s="3">
-        <f t="shared" ref="AP43" si="97">+AP41-AP42</f>
+        <f t="shared" ref="AP43" si="101">+AP41-AP42</f>
         <v>53650.353200000012</v>
       </c>
       <c r="AQ43" s="3">
-        <f t="shared" ref="AQ43" si="98">+AQ41-AQ42</f>
+        <f t="shared" ref="AQ43" si="102">+AQ41-AQ42</f>
         <v>69941.120232480025</v>
       </c>
       <c r="AR43" s="3">
-        <f t="shared" ref="AR43" si="99">+AR41-AR42</f>
+        <f t="shared" ref="AR43" si="103">+AR41-AR42</f>
         <v>82899.437228292692</v>
       </c>
       <c r="AS43" s="3">
-        <f t="shared" ref="AS43" si="100">+AS41-AS42</f>
+        <f t="shared" ref="AS43" si="104">+AS41-AS42</f>
         <v>91271.032748536702</v>
       </c>
       <c r="AT43" s="3">
-        <f t="shared" ref="AT43" si="101">+AT41-AT42</f>
+        <f t="shared" ref="AT43" si="105">+AT41-AT42</f>
         <v>97543.605739293722</v>
       </c>
       <c r="AU43" s="3">
-        <f t="shared" ref="AU43" si="102">+AU41-AU42</f>
+        <f t="shared" ref="AU43" si="106">+AU41-AU42</f>
         <v>103907.12682878258</v>
       </c>
       <c r="AV43" s="3">
-        <f t="shared" ref="AV43" si="103">+AV41-AV42</f>
+        <f t="shared" ref="AV43" si="107">+AV41-AV42</f>
         <v>110378.24929686567</v>
       </c>
       <c r="AW43" s="3">
-        <f t="shared" ref="AW43" si="104">+AW41-AW42</f>
+        <f t="shared" ref="AW43" si="108">+AW41-AW42</f>
         <v>116972.80244972718</v>
       </c>
       <c r="AX43" s="3">
-        <f t="shared" ref="AX43:CC43" si="105">+AW43*(1+$BB$57)</f>
+        <f t="shared" ref="AX43:CC43" si="109">+AW43*(1+$BB$57)</f>
         <v>111124.16232724082</v>
       </c>
       <c r="AY43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>105567.95421087877</v>
       </c>
       <c r="AZ43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>100289.55650033483</v>
       </c>
       <c r="BA43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>95275.078675318087</v>
       </c>
       <c r="BB43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>90511.324741552176</v>
       </c>
       <c r="BC43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>85985.758504474565</v>
       </c>
       <c r="BD43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>81686.470579250832</v>
       </c>
       <c r="BE43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>77602.147050288288</v>
       </c>
       <c r="BF43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>73722.039697773871</v>
       </c>
       <c r="BG43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>70035.937712885177</v>
       </c>
       <c r="BH43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>66534.140827240917</v>
       </c>
       <c r="BI43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>63207.433785878871</v>
       </c>
       <c r="BJ43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>60047.062096584923</v>
       </c>
       <c r="BK43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>57044.708991755673</v>
       </c>
       <c r="BL43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>54192.473542167885</v>
       </c>
       <c r="BM43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>51482.849865059492</v>
       </c>
       <c r="BN43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>48908.707371806515</v>
       </c>
       <c r="BO43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>46463.272003216189</v>
       </c>
       <c r="BP43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>44140.108403055376</v>
       </c>
       <c r="BQ43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>41933.102982902608</v>
       </c>
       <c r="BR43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>39836.447833757476</v>
       </c>
       <c r="BS43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>37844.625442069599</v>
       </c>
       <c r="BT43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>35952.394169966115</v>
       </c>
       <c r="BU43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>34154.774461467809</v>
       </c>
       <c r="BV43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>32447.035738394417</v>
       </c>
       <c r="BW43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>30824.683951474693</v>
       </c>
       <c r="BX43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>29283.449753900957</v>
       </c>
       <c r="BY43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>27819.277266205907</v>
       </c>
       <c r="BZ43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>26428.313402895612</v>
       </c>
       <c r="CA43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>25106.897732750829</v>
       </c>
       <c r="CB43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>23851.552846113285</v>
       </c>
       <c r="CC43" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>22658.975203807619</v>
       </c>
       <c r="CD43" s="3">
-        <f t="shared" ref="CD43:DA43" si="106">+CC43*(1+$BB$57)</f>
+        <f t="shared" ref="CD43:DA43" si="110">+CC43*(1+$BB$57)</f>
         <v>21526.026443617237</v>
       </c>
       <c r="CE43" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>20449.725121436375</v>
       </c>
       <c r="CF43" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>19427.238865364554</v>
       </c>
       <c r="CG43" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>18455.876922096326</v>
       </c>
       <c r="CH43" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>17533.083075991508</v>
       </c>
       <c r="CI43" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>16656.428922191932</v>
       </c>
       <c r="CJ43" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>15823.607476082334</v>
       </c>
       <c r="CK43" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>15032.427102278216</v>
       </c>
       <c r="CL43" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>14280.805747164304</v>
       </c>
       <c r="CM43" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>13566.765459806089</v>
       </c>
       <c r="CN43" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>12888.427186815785</v>
       </c>
       <c r="CO43" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>12244.005827474995</v>
       </c>
       <c r="CP43" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>11631.805536101245</v>
       </c>
       <c r="CQ43" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>11050.215259296183</v>
       </c>
       <c r="CR43" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>10497.704496331373</v>
       </c>
       <c r="CS43" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>9972.8192715148034</v>
       </c>
       <c r="CT43" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>9474.1783079390625</v>
       </c>
       <c r="CU43" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>9000.4693925421088</v>
       </c>
       <c r="CV43" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>8550.4459229150034</v>
       </c>
       <c r="CW43" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>8122.9236267692531</v>
       </c>
       <c r="CX43" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>7716.7774454307901</v>
       </c>
       <c r="CY43" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>7330.9385731592502</v>
       </c>
       <c r="CZ43" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>6964.3916445012874</v>
       </c>
       <c r="DA43" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>6616.1720622762223</v>
       </c>
     </row>
-    <row r="44" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C44" s="9">
-        <f t="shared" ref="C44:D44" si="107">+C43/C45</f>
+        <f t="shared" ref="C44:D44" si="111">+C43/C45</f>
         <v>1.6933786078098472</v>
       </c>
       <c r="D44" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>1.7426621160409557</v>
       </c>
       <c r="E44" s="9">
-        <f t="shared" ref="E44:G44" si="108">+E43/E45</f>
+        <f t="shared" ref="E44:G44" si="112">+E43/E45</f>
         <v>1.7634740817027119</v>
       </c>
       <c r="F44" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>2.3846153846153846</v>
       </c>
       <c r="G44" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>1.4980869565217392</v>
       </c>
       <c r="H44" s="9">
-        <f t="shared" ref="H44" si="109">+H43/H45</f>
+        <f t="shared" ref="H44" si="113">+H43/H45</f>
         <v>1.6055652173913044</v>
       </c>
       <c r="I44" s="9">
-        <f t="shared" ref="I44:J44" si="110">+I43/I45</f>
+        <f t="shared" ref="I44:J44" si="114">+I43/I45</f>
         <v>2.1193458594293668</v>
       </c>
       <c r="J44" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="114"/>
         <v>2.559735283873215</v>
       </c>
       <c r="K44" s="9">
-        <f t="shared" ref="K44:L44" si="111">+K43/K45</f>
+        <f t="shared" ref="K44:L44" si="115">+K43/K45</f>
         <v>1.7092050209205021</v>
       </c>
       <c r="L44" s="9">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>1.7985411601250434</v>
       </c>
       <c r="M44" s="9">
-        <f t="shared" ref="M44:R44" si="112">+M43/M45</f>
+        <f t="shared" ref="M44:R44" si="116">+M43/M45</f>
         <v>2.7139398132134209</v>
       </c>
       <c r="N44" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="116"/>
         <v>3.882006920415225</v>
       </c>
       <c r="O44" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="116"/>
         <v>3.2952810548230396</v>
       </c>
       <c r="P44" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="116"/>
         <v>3.6127911018421965</v>
       </c>
       <c r="Q44" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="116"/>
         <v>3.2158097236796084</v>
       </c>
       <c r="R44" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="116"/>
         <v>3.6745266166488033</v>
       </c>
       <c r="S44" s="9">
@@ -5392,35 +5388,35 @@
         <v>2.7224653537563821</v>
       </c>
       <c r="T44" s="9">
-        <f t="shared" ref="T44:V44" si="113">+T43/T45</f>
+        <f t="shared" ref="T44:V44" si="117">+T43/T45</f>
         <v>2.4647991153704387</v>
       </c>
       <c r="U44" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="117"/>
         <v>1.6356531447711202</v>
       </c>
       <c r="V44" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="117"/>
         <v>1.7621212121212122</v>
       </c>
       <c r="W44" s="9">
-        <f t="shared" ref="W44:AA44" si="114">+W43/W45</f>
+        <f t="shared" ref="W44:AA44" si="118">+W43/W45</f>
         <v>3.1720244318181812</v>
       </c>
       <c r="X44" s="9">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>3.6975497702909648</v>
       </c>
       <c r="Y44" s="9">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>4.3858386974630825</v>
       </c>
       <c r="Z44" s="9">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>5.0527338403041835</v>
       </c>
       <c r="AA44" s="9">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>4.7119999999999997</v>
       </c>
       <c r="AB44" s="9"/>
@@ -5439,47 +5435,47 @@
         <v>10.092105263157896</v>
       </c>
       <c r="AN44" s="17">
-        <f t="shared" ref="AN44" si="115">+AN43/AN45</f>
+        <f t="shared" ref="AN44" si="119">+AN43/AN45</f>
         <v>13.770549143057012</v>
       </c>
       <c r="AO44" s="17">
-        <f t="shared" ref="AO44" si="116">+AO43/AO45</f>
+        <f t="shared" ref="AO44" si="120">+AO43/AO45</f>
         <v>14.721301354108704</v>
       </c>
       <c r="AP44" s="17">
-        <f t="shared" ref="AP44" si="117">+AP43/AP45</f>
+        <f t="shared" ref="AP44" si="121">+AP43/AP45</f>
         <v>19.903673975143764</v>
       </c>
       <c r="AQ44" s="17">
-        <f t="shared" ref="AQ44" si="118">+AQ43/AQ45</f>
+        <f t="shared" ref="AQ44" si="122">+AQ43/AQ45</f>
         <v>25.947364211641634</v>
       </c>
       <c r="AR44" s="17">
-        <f t="shared" ref="AR44" si="119">+AR43/AR45</f>
+        <f t="shared" ref="AR44" si="123">+AR43/AR45</f>
         <v>30.754753191724241</v>
       </c>
       <c r="AS44" s="17">
-        <f t="shared" ref="AS44" si="120">+AS43/AS45</f>
+        <f t="shared" ref="AS44" si="124">+AS43/AS45</f>
         <v>33.860520403834798</v>
       </c>
       <c r="AT44" s="17">
-        <f t="shared" ref="AT44" si="121">+AT43/AT45</f>
+        <f t="shared" ref="AT44" si="125">+AT43/AT45</f>
         <v>36.187574008270715</v>
       </c>
       <c r="AU44" s="17">
-        <f t="shared" ref="AU44" si="122">+AU43/AU45</f>
+        <f t="shared" ref="AU44" si="126">+AU43/AU45</f>
         <v>38.548368328244329</v>
       </c>
       <c r="AV44" s="17">
-        <f t="shared" ref="AV44" si="123">+AV43/AV45</f>
+        <f t="shared" ref="AV44" si="127">+AV43/AV45</f>
         <v>40.949081542150132</v>
       </c>
       <c r="AW44" s="17">
-        <f t="shared" ref="AW44" si="124">+AW43/AW45</f>
+        <f t="shared" ref="AW44" si="128">+AW43/AW45</f>
         <v>43.395586143471412</v>
       </c>
     </row>
-    <row r="45" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>2</v>
       </c>
@@ -5583,42 +5579,42 @@
         <v>2695.5</v>
       </c>
       <c r="AP45" s="3">
-        <f t="shared" ref="AP45:AW45" si="125">+AO45</f>
+        <f t="shared" ref="AP45:AW45" si="129">+AO45</f>
         <v>2695.5</v>
       </c>
       <c r="AQ45" s="3">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>2695.5</v>
       </c>
       <c r="AR45" s="3">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>2695.5</v>
       </c>
       <c r="AS45" s="3">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>2695.5</v>
       </c>
       <c r="AT45" s="3">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>2695.5</v>
       </c>
       <c r="AU45" s="3">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>2695.5</v>
       </c>
       <c r="AV45" s="3">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>2695.5</v>
       </c>
       <c r="AW45" s="3">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>2695.5</v>
       </c>
     </row>
-    <row r="46" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:105" x14ac:dyDescent="0.25">
       <c r="S46" s="6"/>
     </row>
-    <row r="47" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
         <v>48</v>
       </c>
@@ -5627,23 +5623,23 @@
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="11">
-        <f t="shared" ref="G47:K47" si="126">+G32/C32-1</f>
+        <f t="shared" ref="G47:K47" si="130">+G32/C32-1</f>
         <v>0.25998662878154777</v>
       </c>
       <c r="H47" s="11">
-        <f t="shared" si="126"/>
+        <f t="shared" si="130"/>
         <v>0.2762451817700855</v>
       </c>
       <c r="I47" s="11">
-        <f t="shared" si="126"/>
+        <f t="shared" si="130"/>
         <v>0.2859328331026445</v>
       </c>
       <c r="J47" s="11">
-        <f t="shared" si="126"/>
+        <f t="shared" si="130"/>
         <v>0.2464230814709707</v>
       </c>
       <c r="K47" s="11">
-        <f t="shared" si="126"/>
+        <f t="shared" si="130"/>
         <v>0.17642767128739134</v>
       </c>
       <c r="L47" s="11">
@@ -5667,11 +5663,11 @@
         <v>0.5560014983678494</v>
       </c>
       <c r="Q47" s="11">
-        <f t="shared" ref="Q47:R47" si="127">+Q32/M32-1</f>
+        <f t="shared" ref="Q47:R47" si="131">+Q32/M32-1</f>
         <v>0.35118770377270603</v>
       </c>
       <c r="R47" s="11">
-        <f t="shared" si="127"/>
+        <f t="shared" si="131"/>
         <v>0.19945141065830718</v>
       </c>
       <c r="S47" s="11">
@@ -5687,7 +5683,7 @@
         <v>-4.4674250258531556E-2</v>
       </c>
       <c r="V47" s="11">
-        <f t="shared" ref="V47" si="128">+V32/R32-1</f>
+        <f t="shared" ref="V47" si="132">+V32/R32-1</f>
         <v>-4.4726916337501144E-2</v>
       </c>
       <c r="W47" s="11">
@@ -5695,15 +5691,15 @@
         <v>2.6408198366060009E-2</v>
       </c>
       <c r="X47" s="11">
-        <f t="shared" ref="X47" si="129">+X32/T32-1</f>
+        <f t="shared" ref="X47" si="133">+X32/T32-1</f>
         <v>0.11022829782804799</v>
       </c>
       <c r="Y47" s="11">
-        <f t="shared" ref="Y47" si="130">+Y32/U32-1</f>
+        <f t="shared" ref="Y47" si="134">+Y32/U32-1</f>
         <v>0.23208486685429741</v>
       </c>
       <c r="Z47" s="11">
-        <f t="shared" ref="Z47:AA47" si="131">+Z32/V32-1</f>
+        <f t="shared" ref="Z47" si="135">+Z32/V32-1</f>
         <v>0.24703870666873939</v>
       </c>
       <c r="AA47" s="11">
@@ -5723,23 +5719,23 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="AG47" s="18">
-        <f t="shared" ref="AG47:AK47" si="132">+AG32/AF32-1</f>
+        <f t="shared" ref="AG47:AK47" si="136">+AG32/AF32-1</f>
         <v>0.58358739837398366</v>
       </c>
       <c r="AH47" s="18">
-        <f t="shared" si="132"/>
+        <f t="shared" si="136"/>
         <v>0.43815177282207607</v>
       </c>
       <c r="AI47" s="18">
-        <f t="shared" si="132"/>
+        <f t="shared" si="136"/>
         <v>0.54161088799643009</v>
       </c>
       <c r="AJ47" s="18">
-        <f t="shared" si="132"/>
+        <f t="shared" si="136"/>
         <v>0.47090961719371882</v>
       </c>
       <c r="AK47" s="18">
-        <f t="shared" si="132"/>
+        <f t="shared" si="136"/>
         <v>0.37352716896661997</v>
       </c>
       <c r="AL47" s="18">
@@ -5759,39 +5755,39 @@
         <v>-1.1193175554782941E-2</v>
       </c>
       <c r="AP47" s="18">
-        <f t="shared" ref="AP47:AW47" si="133">+AP32/AO32-1</f>
+        <f t="shared" ref="AP47:AW47" si="137">+AP32/AO32-1</f>
         <v>0.15686610810486323</v>
       </c>
       <c r="AQ47" s="18">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>0.15371791165373128</v>
       </c>
       <c r="AR47" s="18">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AS47" s="18">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AT47" s="18">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AU47" s="18">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AV47" s="18">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AW47" s="18">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
         <v>95</v>
       </c>
@@ -5812,15 +5808,15 @@
         <v>0.41985917173887088</v>
       </c>
       <c r="P48" s="11">
-        <f t="shared" ref="P48:R48" si="134">+P27/L27-1</f>
+        <f t="shared" ref="P48:R48" si="138">+P27/L27-1</f>
         <v>0.47543879015343848</v>
       </c>
       <c r="Q48" s="11">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>0.31097316780136164</v>
       </c>
       <c r="R48" s="11">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>0.14539923954372624</v>
       </c>
       <c r="S48" s="11">
@@ -5832,7 +5828,7 @@
         <v>-1</v>
       </c>
       <c r="U48" s="11">
-        <f t="shared" ref="U48" si="135">+U27/Q27-1</f>
+        <f t="shared" ref="U48" si="139">+U27/Q27-1</f>
         <v>-1</v>
       </c>
       <c r="V48" s="11"/>
@@ -5840,7 +5836,7 @@
       <c r="X48" s="12"/>
       <c r="Y48" s="12"/>
     </row>
-    <row r="49" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>97</v>
       </c>
@@ -5874,7 +5870,7 @@
       <c r="X49" s="6"/>
       <c r="Y49" s="6"/>
     </row>
-    <row r="50" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>96</v>
       </c>
@@ -5910,7 +5906,7 @@
       <c r="X50" s="6"/>
       <c r="Y50" s="6"/>
     </row>
-    <row r="51" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>108</v>
       </c>
@@ -5930,50 +5926,50 @@
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="10">
-        <f t="shared" ref="R51" si="136">+R30/N30-1</f>
+        <f t="shared" ref="R51" si="140">+R30/N30-1</f>
         <v>0.22315202231520215</v>
       </c>
       <c r="S51" s="10">
-        <f t="shared" ref="S51:AA51" si="137">+S30/O30-1</f>
+        <f t="shared" ref="S51:AA51" si="141">+S30/O30-1</f>
         <v>0.30149812734082393</v>
       </c>
       <c r="T51" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>0.4819672131147541</v>
       </c>
       <c r="U51" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>-0.489247311827957</v>
       </c>
       <c r="V51" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>-0.17103762827822122</v>
       </c>
       <c r="W51" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>-0.51223021582733819</v>
       </c>
       <c r="X51" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>-0.38938053097345138</v>
       </c>
       <c r="Y51" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>-0.26315789473684215</v>
       </c>
       <c r="Z51" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>0.47317744154057761</v>
       </c>
       <c r="AA51" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>0.29793510324483785</v>
       </c>
       <c r="AB51" s="10"/>
       <c r="AC51" s="10"/>
       <c r="AD51" s="10"/>
       <c r="AM51" s="19">
-        <f t="shared" ref="AM51" si="138">AM30/AL30-1</f>
+        <f t="shared" ref="AM51" si="142">AM30/AL30-1</f>
         <v>1.2734530938123751</v>
       </c>
       <c r="AN51" s="19">
@@ -5985,9 +5981,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -6004,19 +6000,19 @@
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="10">
-        <f t="shared" ref="Q52:T52" si="139">+Q38/M38-1</f>
+        <f t="shared" ref="Q52:T52" si="143">+Q38/M38-1</f>
         <v>0.38761368557817244</v>
       </c>
       <c r="R52" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>0.46108852979081982</v>
       </c>
       <c r="S52" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>0.38470296004967919</v>
       </c>
       <c r="T52" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>0.35019008045265676</v>
       </c>
       <c r="U52" s="10">
@@ -6024,23 +6020,23 @@
         <v>0.27450062421972543</v>
       </c>
       <c r="V52" s="10">
-        <f t="shared" ref="V52:Z52" si="140">+V38/R38-1</f>
+        <f t="shared" ref="V52:Z52" si="144">+V38/R38-1</f>
         <v>0.18265707694395439</v>
       </c>
       <c r="W52" s="10">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="X52" s="10">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>-3.1430068098480923E-2</v>
       </c>
       <c r="Y52" s="10">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>-0.13138239255540585</v>
       </c>
       <c r="Z52" s="10">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>-8.0206540447504304E-2</v>
       </c>
       <c r="AA52" s="10">
@@ -6051,7 +6047,7 @@
       <c r="AC52" s="10"/>
       <c r="AD52" s="10"/>
     </row>
-    <row r="53" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -6081,104 +6077,104 @@
       <c r="AC53" s="10"/>
       <c r="AD53" s="10"/>
     </row>
-    <row r="54" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C54" s="10">
-        <f t="shared" ref="C54:Z54" si="141">+C34/C32</f>
+        <f t="shared" ref="C54:Z54" si="145">+C34/C32</f>
         <v>0.8389603877653351</v>
       </c>
       <c r="D54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.83266570931902351</v>
       </c>
       <c r="E54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.82385080498288044</v>
       </c>
       <c r="F54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.83469315360056762</v>
       </c>
       <c r="G54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.81322544272733299</v>
       </c>
       <c r="H54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.80415729006277392</v>
       </c>
       <c r="I54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.82126671198731027</v>
       </c>
       <c r="J54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.83436106631249407</v>
       </c>
       <c r="K54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.80498393189378137</v>
       </c>
       <c r="L54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.7950981966072671</v>
       </c>
       <c r="M54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.80465766185374943</v>
       </c>
       <c r="N54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.81440581362211462</v>
       </c>
       <c r="O54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.80394329601467274</v>
       </c>
       <c r="P54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.81432059703545756</v>
       </c>
       <c r="Q54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.80106859703550504</v>
       </c>
       <c r="R54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.81146981081642955</v>
       </c>
       <c r="S54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.78482872294682526</v>
       </c>
       <c r="T54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.81985982929706469</v>
       </c>
       <c r="U54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.79375045103557773</v>
       </c>
       <c r="V54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.74083631276231932</v>
       </c>
       <c r="W54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.78999999999999992</v>
       </c>
       <c r="X54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.81421294415450485</v>
       </c>
       <c r="Y54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.81813389562467054</v>
       </c>
       <c r="Z54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.79</v>
       </c>
       <c r="AA54" s="10">
@@ -6189,132 +6185,132 @@
       <c r="AC54" s="10"/>
       <c r="AD54" s="10"/>
       <c r="AK54" s="19">
-        <f t="shared" ref="AK54:AW54" si="142">+AK34/AK32</f>
+        <f t="shared" ref="AK54:AW54" si="146">+AK34/AK32</f>
         <v>0.8324617643898421</v>
       </c>
       <c r="AL54" s="19">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>0.81936998741106415</v>
       </c>
       <c r="AM54" s="19">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>0.80582795323678236</v>
       </c>
       <c r="AN54" s="19">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>0.80794376277251567</v>
       </c>
       <c r="AO54" s="19">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>0.81</v>
       </c>
       <c r="AP54" s="19">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>0.81</v>
       </c>
       <c r="AQ54" s="19">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>0.81</v>
       </c>
       <c r="AR54" s="19">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>0.81</v>
       </c>
       <c r="AS54" s="19">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>0.80999999999999994</v>
       </c>
       <c r="AT54" s="19">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>0.81000000000000016</v>
       </c>
       <c r="AU54" s="19">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>0.81000000000000016</v>
       </c>
       <c r="AV54" s="19">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>0.80999999999999994</v>
       </c>
       <c r="AW54" s="19">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>0.80999999999999994</v>
       </c>
     </row>
-    <row r="55" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C55" s="10">
-        <f t="shared" ref="C55:E55" si="143">+C39/C32</f>
+        <f t="shared" ref="C55:E55" si="147">+C39/C32</f>
         <v>0.45537355841551064</v>
       </c>
       <c r="D55" s="10">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>0.44312599198851182</v>
       </c>
       <c r="E55" s="10">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>0.42114081736723247</v>
       </c>
       <c r="F55" s="10">
-        <f t="shared" ref="F55:I55" si="144">+F39/F32</f>
+        <f t="shared" ref="F55:I55" si="148">+F39/F32</f>
         <v>0.46233889085964291</v>
       </c>
       <c r="G55" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>0.41898255621144792</v>
       </c>
       <c r="H55" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>0.39239606774843067</v>
       </c>
       <c r="I55" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>0.40703602991162474</v>
       </c>
       <c r="J55" s="10">
-        <f t="shared" ref="J55:L55" si="145">+J39/J32</f>
+        <f t="shared" ref="J55:L55" si="149">+J39/J32</f>
         <v>0.42016886443411439</v>
       </c>
       <c r="K55" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>0.33224333314540228</v>
       </c>
       <c r="L55" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>0.31909883876491679</v>
       </c>
       <c r="M55" s="10">
-        <f t="shared" ref="M55:P55" si="146">+M39/M32</f>
+        <f t="shared" ref="M55:P55" si="150">+M39/M32</f>
         <v>0.37447601304145317</v>
       </c>
       <c r="N55" s="10">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>0.45507979481333716</v>
       </c>
       <c r="O55" s="10">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>0.43475602766420846</v>
       </c>
       <c r="P55" s="10">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>0.42531898063761736</v>
       </c>
       <c r="Q55" s="10">
-        <f t="shared" ref="Q55:T55" si="147">+Q39/Q32</f>
+        <f t="shared" ref="Q55:T55" si="151">+Q39/Q32</f>
         <v>0.35928990003447087</v>
       </c>
       <c r="R55" s="10">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>0.37376377297971547</v>
       </c>
       <c r="S55" s="10">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>0.30543213415508097</v>
       </c>
       <c r="T55" s="10">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>0.28998681562695161</v>
       </c>
       <c r="U55" s="10">
@@ -6322,23 +6318,23 @@
         <v>0.20437324096124701</v>
       </c>
       <c r="V55" s="10">
-        <f t="shared" ref="V55:Z55" si="148">+V39/V32</f>
+        <f t="shared" ref="V55:Z55" si="152">+V39/V32</f>
         <v>0.19894295041193844</v>
       </c>
       <c r="W55" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>0.36964391691394655</v>
       </c>
       <c r="X55" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>0.35194849839057468</v>
       </c>
       <c r="Y55" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>0.40262402624026239</v>
       </c>
       <c r="Z55" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>0.39030914213058771</v>
       </c>
       <c r="AA55" s="10">
@@ -6349,55 +6345,55 @@
       <c r="AC55" s="10"/>
       <c r="AD55" s="10"/>
       <c r="AK55" s="10">
-        <f t="shared" ref="AK55:AW55" si="149">+AK39/AK32</f>
+        <f t="shared" ref="AK55:AW55" si="153">+AK39/AK32</f>
         <v>0.44616569361366809</v>
       </c>
       <c r="AL55" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>0.41000325332050863</v>
       </c>
       <c r="AM55" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>0.3800500203571221</v>
       </c>
       <c r="AN55" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>0.39645040660058173</v>
       </c>
       <c r="AO55" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>0.4149918959943058</v>
       </c>
       <c r="AP55" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>0.48500203853196056</v>
       </c>
       <c r="AQ55" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>0.54113522623374677</v>
       </c>
       <c r="AR55" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>0.57607592504900818</v>
       </c>
       <c r="AS55" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>0.59621383527450633</v>
       </c>
       <c r="AT55" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>0.61030353104811186</v>
       </c>
       <c r="AU55" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>0.62299044067687737</v>
       </c>
       <c r="AV55" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>0.63444067721872754</v>
       </c>
       <c r="AW55" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>0.64479970657730268</v>
       </c>
       <c r="BA55" t="s">
@@ -6408,104 +6404,104 @@
         <v>963473.28822875605</v>
       </c>
     </row>
-    <row r="56" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C56" s="10">
-        <f t="shared" ref="C56:V56" si="150">+C42/C41</f>
+        <f t="shared" ref="C56:V56" si="154">+C42/C41</f>
         <v>0.11105169340463458</v>
       </c>
       <c r="D56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.12985685071574643</v>
       </c>
       <c r="E56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.13108930987821379</v>
       </c>
       <c r="F56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.13662024840045164</v>
       </c>
       <c r="G56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.33972098727579336</v>
       </c>
       <c r="H56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.32435597189695553</v>
       </c>
       <c r="I56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.16891799699822621</v>
       </c>
       <c r="J56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.19849492856363835</v>
       </c>
       <c r="K56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.16362395495649207</v>
       </c>
       <c r="L56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.15543956940140272</v>
       </c>
       <c r="M56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>3.5288331488995447E-2</v>
       </c>
       <c r="N56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.14063577173496744</v>
       </c>
       <c r="O56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.17438928975049986</v>
       </c>
       <c r="P56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.16934388236234316</v>
       </c>
       <c r="Q56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.12976810222432561</v>
       </c>
       <c r="R56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.19028499448905684</v>
       </c>
       <c r="S56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.1619892231701841</v>
       </c>
       <c r="T56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.18311751771316884</v>
       </c>
       <c r="U56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.21180057388809181</v>
       </c>
       <c r="V56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.24345422019840623</v>
       </c>
       <c r="W56" s="10">
-        <f t="shared" ref="W56:Z56" si="151">+W42/W41</f>
+        <f t="shared" ref="W56:Z56" si="155">+W42/W41</f>
         <v>0.19</v>
       </c>
       <c r="X56" s="10">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>0.13482038878437697</v>
       </c>
       <c r="Y56" s="10">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>0.1738231098430813</v>
       </c>
       <c r="Z56" s="10">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>0.17357299798690146</v>
       </c>
       <c r="AA56" s="10">
@@ -6516,55 +6512,55 @@
       <c r="AC56" s="10"/>
       <c r="AD56" s="10"/>
       <c r="AK56" s="19">
-        <f t="shared" ref="AK56:AW56" si="152">+AK42/AK41</f>
+        <f t="shared" ref="AK56:AW56" si="156">+AK42/AK41</f>
         <v>0.12814952091794488</v>
       </c>
       <c r="AL56" s="19">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>0.21222997450690997</v>
       </c>
       <c r="AM56" s="19">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>0.12157926461723931</v>
       </c>
       <c r="AN56" s="19">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>0.16737162676592504</v>
       </c>
       <c r="AO56" s="19">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>0.18</v>
       </c>
       <c r="AP56" s="19">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>0.18</v>
       </c>
       <c r="AQ56" s="19">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>0.18</v>
       </c>
       <c r="AR56" s="19">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>0.18000000000000002</v>
       </c>
       <c r="AS56" s="19">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>0.18</v>
       </c>
       <c r="AT56" s="19">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>0.18</v>
       </c>
       <c r="AU56" s="19">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>0.18</v>
       </c>
       <c r="AV56" s="19">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>0.18</v>
       </c>
       <c r="AW56" s="19">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>0.18</v>
       </c>
       <c r="BA56" s="3" t="s">
@@ -6574,7 +6570,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="S57" s="6"/>
       <c r="BA57" t="s">
         <v>114</v>
@@ -6583,36 +6579,36 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q58" s="6">
-        <f t="shared" ref="Q58:S58" si="153">+Q59-Q73</f>
+        <f t="shared" ref="Q58:S58" si="157">+Q59-Q73</f>
         <v>64833</v>
       </c>
       <c r="R58" s="6">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>54773</v>
       </c>
       <c r="S58" s="6">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>50665</v>
       </c>
       <c r="T58" s="6">
-        <f t="shared" ref="T58:Z58" si="154">+T59-T73</f>
+        <f t="shared" ref="T58:W58" si="158">+T59-T73</f>
         <v>47025</v>
       </c>
       <c r="U58" s="6">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>38382</v>
       </c>
       <c r="V58" s="6">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="W58" s="6">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="X58" s="6">
@@ -6641,7 +6637,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="59" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>4</v>
       </c>
@@ -6709,35 +6705,35 @@
         <v>0</v>
       </c>
       <c r="AP59" s="3">
-        <f t="shared" ref="AP59:AW59" si="155">+AO59+AP43</f>
+        <f t="shared" ref="AP59:AW59" si="159">+AO59+AP43</f>
         <v>53650.353200000012</v>
       </c>
       <c r="AQ59" s="3">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>123591.47343248004</v>
       </c>
       <c r="AR59" s="3">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>206490.91066077273</v>
       </c>
       <c r="AS59" s="3">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>297761.94340930943</v>
       </c>
       <c r="AT59" s="3">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>395305.54914860317</v>
       </c>
       <c r="AU59" s="3">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>499212.67597738572</v>
       </c>
       <c r="AV59" s="3">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>609590.92527425138</v>
       </c>
       <c r="AW59" s="3">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>726563.72772397858</v>
       </c>
       <c r="BA59" s="3" t="s">
@@ -6748,7 +6744,7 @@
         <v>367.0374431347642</v>
       </c>
     </row>
-    <row r="60" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>49</v>
       </c>
@@ -6802,7 +6798,7 @@
         <v>-0.17147304032784605</v>
       </c>
     </row>
-    <row r="61" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>50</v>
       </c>
@@ -6849,7 +6845,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="62" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>51</v>
       </c>
@@ -6896,7 +6892,7 @@
         <v>98908</v>
       </c>
     </row>
-    <row r="63" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>52</v>
       </c>
@@ -6943,7 +6939,7 @@
         <v>13555</v>
       </c>
     </row>
-    <row r="64" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>54</v>
       </c>
@@ -6998,7 +6994,7 @@
         <v>20654</v>
       </c>
     </row>
-    <row r="65" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>55</v>
       </c>
@@ -7045,7 +7041,7 @@
         <v>8179</v>
       </c>
     </row>
-    <row r="66" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>53</v>
       </c>
@@ -7061,23 +7057,23 @@
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6">
-        <f t="shared" ref="N66:O66" si="156">SUM(N59:N65)</f>
+        <f t="shared" ref="N66:O66" si="160">SUM(N59:N65)</f>
         <v>159316</v>
       </c>
       <c r="O66" s="6">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>163523</v>
       </c>
       <c r="P66" s="6">
-        <f t="shared" ref="P66:Q66" si="157">SUM(P59:P65)</f>
+        <f t="shared" ref="P66:Q66" si="161">SUM(P59:P65)</f>
         <v>170609</v>
       </c>
       <c r="Q66" s="6">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>169585</v>
       </c>
       <c r="R66" s="6">
-        <f t="shared" ref="R66" si="158">SUM(R59:R65)</f>
+        <f t="shared" ref="R66" si="162">SUM(R59:R65)</f>
         <v>165987</v>
       </c>
       <c r="S66" s="6">
@@ -7093,34 +7089,34 @@
         <v>178894</v>
       </c>
       <c r="V66" s="6">
-        <f t="shared" ref="V66:AA66" si="159">SUM(V59:V65)</f>
+        <f t="shared" ref="V66:AA66" si="163">SUM(V59:V65)</f>
         <v>0</v>
       </c>
       <c r="W66" s="6">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="X66" s="6">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="Y66" s="6">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="Z66" s="6">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="AA66" s="6">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>222844</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.25">
       <c r="S67" s="6"/>
     </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>56</v>
       </c>
@@ -7152,7 +7148,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>57</v>
       </c>
@@ -7184,7 +7180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>58</v>
       </c>
@@ -7225,7 +7221,7 @@
         <v>19246</v>
       </c>
     </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>59</v>
       </c>
@@ -7257,7 +7253,7 @@
         <v>22640</v>
       </c>
     </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>60</v>
       </c>
@@ -7289,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>5</v>
       </c>
@@ -7315,7 +7311,7 @@
       <c r="AC73" s="6"/>
       <c r="AD73" s="6"/>
     </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>65</v>
       </c>
@@ -7348,7 +7344,7 @@
         <v>9257</v>
       </c>
     </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>64</v>
       </c>
@@ -7380,7 +7376,7 @@
         <v>75391</v>
       </c>
     </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>63</v>
       </c>
@@ -7412,7 +7408,7 @@
         <v>-2655</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>62</v>
       </c>
@@ -7444,88 +7440,88 @@
         <v>76793</v>
       </c>
     </row>
-    <row r="78" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>61</v>
       </c>
       <c r="N78" s="6">
-        <f t="shared" ref="N78:O78" si="160">SUM(N68:N77)</f>
+        <f t="shared" ref="N78:O78" si="164">SUM(N68:N77)</f>
         <v>159316</v>
       </c>
       <c r="O78" s="6">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>163523</v>
       </c>
       <c r="P78" s="6">
-        <f t="shared" ref="P78:Q78" si="161">SUM(P68:P77)</f>
+        <f t="shared" ref="P78:Q78" si="165">SUM(P68:P77)</f>
         <v>170609</v>
       </c>
       <c r="Q78" s="6">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>169585</v>
       </c>
       <c r="R78" s="6">
-        <f t="shared" ref="R78:U78" si="162">SUM(R68:R77)</f>
+        <f t="shared" ref="R78:U78" si="166">SUM(R68:R77)</f>
         <v>165987</v>
       </c>
       <c r="S78" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>164218</v>
       </c>
       <c r="T78" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>169779</v>
       </c>
       <c r="U78" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>178894</v>
       </c>
       <c r="AA78" s="6">
-        <f t="shared" ref="AA78" si="163">SUM(AA68:AA77)</f>
+        <f t="shared" ref="AA78" si="167">SUM(AA68:AA77)</f>
         <v>222844</v>
       </c>
     </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:30" x14ac:dyDescent="0.25">
       <c r="S79" s="6"/>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>66</v>
       </c>
       <c r="O80" s="6">
-        <f t="shared" ref="O80:U80" si="164">O43</f>
+        <f t="shared" ref="O80:U80" si="168">O43</f>
         <v>9497</v>
       </c>
       <c r="P80" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="168"/>
         <v>10394</v>
       </c>
       <c r="Q80" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="168"/>
         <v>9194</v>
       </c>
       <c r="R80" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="168"/>
         <v>10285</v>
       </c>
       <c r="S80" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="168"/>
         <v>7465</v>
       </c>
       <c r="T80" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="168"/>
         <v>6687</v>
       </c>
       <c r="U80" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="168"/>
         <v>4395</v>
       </c>
       <c r="AA80" s="6">
-        <f t="shared" ref="AA80" si="165">AA43</f>
+        <f t="shared" ref="AA80" si="169">AA43</f>
         <v>12369</v>
       </c>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>67</v>
       </c>
@@ -7557,7 +7553,7 @@
         <v>12369</v>
       </c>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>69</v>
       </c>
@@ -7589,7 +7585,7 @@
         <v>3374</v>
       </c>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>70</v>
       </c>
@@ -7621,7 +7617,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>71</v>
       </c>
@@ -7653,7 +7649,7 @@
         <v>-456</v>
       </c>
     </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>55</v>
       </c>
@@ -7686,7 +7682,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>72</v>
       </c>
@@ -7723,36 +7719,36 @@
         <v>223</v>
       </c>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>68</v>
       </c>
       <c r="O87" s="6">
-        <f t="shared" ref="O87:U87" si="166">SUM(O81:O86)</f>
+        <f t="shared" ref="O87:U87" si="170">SUM(O81:O86)</f>
         <v>12242</v>
       </c>
       <c r="P87" s="6">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>13247</v>
       </c>
       <c r="Q87" s="6">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>14090</v>
       </c>
       <c r="R87" s="6">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>18104</v>
       </c>
       <c r="S87" s="6">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>14076</v>
       </c>
       <c r="T87" s="6">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>12197</v>
       </c>
       <c r="U87" s="6">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>9691</v>
       </c>
       <c r="AA87" s="3">
@@ -7760,11 +7756,11 @@
         <v>19246</v>
       </c>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:27" x14ac:dyDescent="0.25">
       <c r="S88" s="6"/>
       <c r="T88" s="6"/>
     </row>
-    <row r="89" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
         <v>73</v>
       </c>
@@ -7814,7 +7810,7 @@
         <v>-6400</v>
       </c>
     </row>
-    <row r="90" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
         <v>74</v>
       </c>
@@ -7867,7 +7863,7 @@
         <v>-2334</v>
       </c>
     </row>
-    <row r="91" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
         <v>75</v>
       </c>
@@ -7915,7 +7911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
         <v>76</v>
       </c>
@@ -7932,31 +7928,31 @@
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
       <c r="O92" s="6">
-        <f t="shared" ref="O92:U92" si="167">SUM(O89:O91)</f>
+        <f t="shared" ref="O92:U92" si="171">SUM(O89:O91)</f>
         <v>-4874</v>
       </c>
       <c r="P92" s="6">
-        <f t="shared" si="167"/>
+        <f t="shared" si="171"/>
         <v>-8195</v>
       </c>
       <c r="Q92" s="6">
-        <f t="shared" si="167"/>
+        <f t="shared" si="171"/>
         <v>-330</v>
       </c>
       <c r="R92" s="6">
-        <f t="shared" si="167"/>
+        <f t="shared" si="171"/>
         <v>5829</v>
       </c>
       <c r="S92" s="6">
-        <f t="shared" si="167"/>
+        <f t="shared" si="171"/>
         <v>-4779</v>
       </c>
       <c r="T92" s="6">
-        <f t="shared" si="167"/>
+        <f t="shared" si="171"/>
         <v>-6959</v>
       </c>
       <c r="U92" s="6">
-        <f t="shared" si="167"/>
+        <f t="shared" si="171"/>
         <v>-9701</v>
       </c>
       <c r="V92" s="6"/>
@@ -7968,7 +7964,7 @@
         <v>-8734</v>
       </c>
     </row>
-    <row r="93" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -7993,7 +7989,7 @@
       <c r="X93" s="6"/>
       <c r="Y93" s="6"/>
     </row>
-    <row r="94" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
         <v>77</v>
       </c>
@@ -8041,7 +8037,7 @@
         <v>-3162</v>
       </c>
     </row>
-    <row r="95" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
         <v>78</v>
       </c>
@@ -8089,38 +8085,38 @@
         <v>-15008</v>
       </c>
     </row>
-    <row r="96" spans="2:27" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="24"/>
-      <c r="K96" s="24"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="24"/>
-      <c r="N96" s="24"/>
-      <c r="O96" s="24"/>
-      <c r="P96" s="24"/>
-      <c r="Q96" s="24"/>
-      <c r="R96" s="24"/>
-      <c r="S96" s="24"/>
-      <c r="T96" s="24"/>
-      <c r="U96" s="24"/>
-      <c r="V96" s="24"/>
-      <c r="W96" s="24"/>
-      <c r="X96" s="24"/>
-      <c r="Y96" s="24"/>
-      <c r="AA96" s="23">
+    <row r="96" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
+      <c r="U96" s="6"/>
+      <c r="V96" s="6"/>
+      <c r="W96" s="6"/>
+      <c r="X96" s="6"/>
+      <c r="Y96" s="6"/>
+      <c r="AA96" s="3">
         <v>-1273</v>
       </c>
     </row>
-    <row r="97" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
         <v>5</v>
       </c>
@@ -8158,7 +8154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
         <v>55</v>
       </c>
@@ -8210,7 +8206,7 @@
         <v>-324</v>
       </c>
     </row>
-    <row r="99" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
         <v>79</v>
       </c>
@@ -8227,19 +8223,19 @@
       <c r="M99" s="6"/>
       <c r="N99" s="6"/>
       <c r="O99" s="6">
-        <f t="shared" ref="O99:Q99" si="168">SUM(O94:O98)</f>
+        <f t="shared" ref="O99:Q99" si="172">SUM(O94:O98)</f>
         <v>-5185</v>
       </c>
       <c r="P99" s="6">
-        <f t="shared" si="168"/>
+        <f t="shared" si="172"/>
         <v>-8549</v>
       </c>
       <c r="Q99" s="6">
-        <f t="shared" si="168"/>
+        <f t="shared" si="172"/>
         <v>-15252</v>
       </c>
       <c r="R99" s="6">
-        <f t="shared" ref="R99" si="169">SUM(R94:R98)</f>
+        <f t="shared" ref="R99" si="173">SUM(R94:R98)</f>
         <v>-21742</v>
       </c>
       <c r="S99" s="6">
@@ -8263,7 +8259,7 @@
         <v>-19767</v>
       </c>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>80</v>
       </c>
@@ -8295,36 +8291,36 @@
         <v>-288</v>
       </c>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>81</v>
       </c>
       <c r="O101" s="6">
-        <f t="shared" ref="O101:U101" si="170">+O100+O99+O92+O87</f>
+        <f t="shared" ref="O101:U101" si="174">+O100+O99+O92+O87</f>
         <v>1937</v>
       </c>
       <c r="P101" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>-3380</v>
       </c>
       <c r="Q101" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>-1707</v>
       </c>
       <c r="R101" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>2061</v>
       </c>
       <c r="S101" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>-1512</v>
       </c>
       <c r="T101" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>-1875</v>
       </c>
       <c r="U101" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>1773</v>
       </c>
       <c r="AA101" s="3">
@@ -8332,10 +8328,10 @@
         <v>-9543</v>
       </c>
     </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:27" x14ac:dyDescent="0.25">
       <c r="S102" s="6"/>
     </row>
-    <row r="103" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
         <v>35</v>
       </c>
@@ -8389,73 +8385,73 @@
         <v>69329</v>
       </c>
     </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S104" s="6">
-        <f t="shared" ref="S104:AA104" si="171">+S103-R103</f>
+        <f t="shared" ref="S104:AA104" si="175">+S103-R103</f>
         <v>5835</v>
       </c>
       <c r="T104" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>5748</v>
       </c>
       <c r="U104" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>3761</v>
       </c>
       <c r="V104" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>-1314</v>
       </c>
       <c r="W104" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>-8886</v>
       </c>
       <c r="X104" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>-5645</v>
       </c>
       <c r="Y104" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>-5284</v>
       </c>
       <c r="Z104" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>1132</v>
       </c>
       <c r="AA104" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>2012</v>
       </c>
     </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
       <c r="S105" s="6"/>
       <c r="T105" s="6"/>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O106" s="6">
         <f>+O87+O89</f>
         <v>7970</v>
       </c>
       <c r="P106" s="6">
-        <f t="shared" ref="P106:S106" si="172">+P87+P89</f>
+        <f t="shared" ref="P106:S106" si="176">+P87+P89</f>
         <v>8635</v>
       </c>
       <c r="Q106" s="6">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>9776</v>
       </c>
       <c r="R106" s="6">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>12734</v>
       </c>
       <c r="S106" s="6">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>8761</v>
       </c>
       <c r="T106" s="6">
@@ -8467,16 +8463,16 @@
         <v>336</v>
       </c>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R107" s="6">
-        <f t="shared" ref="R107:S107" si="173">SUM(O106:R106)</f>
+        <f t="shared" ref="R107:S107" si="177">SUM(O106:R106)</f>
         <v>39115</v>
       </c>
       <c r="S107" s="6">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>39906</v>
       </c>
       <c r="T107" s="6">
@@ -8488,9 +8484,9 @@
         <v>26500</v>
       </c>
     </row>
-    <row r="109" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B109" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -8520,9 +8516,9 @@
       <c r="X109" s="6"/>
       <c r="Y109" s="6"/>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q110" s="10"/>
       <c r="R110" s="10">
@@ -8542,9 +8538,9 @@
         <v>-0.14600231749710313</v>
       </c>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q112" s="6">
         <v>13054</v>
@@ -8556,18 +8552,18 @@
         <v>9336</v>
       </c>
     </row>
-    <row r="113" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U113" s="10">
         <f>+U112/U32</f>
         <v>0.33686945226239445</v>
       </c>
     </row>
-    <row r="115" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -8592,42 +8588,42 @@
       <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" t="s">
         <v>128</v>
       </c>
-      <c r="C2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>11449606</v>
       </c>
@@ -8638,19 +8634,19 @@
         <v>44824</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>11449189</v>
       </c>
@@ -8661,19 +8657,19 @@
         <v>44824</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>11448803</v>
       </c>
@@ -8684,19 +8680,19 @@
         <v>44824</v>
       </c>
       <c r="E5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" t="s">
         <v>140</v>
-      </c>
-      <c r="F5" t="s">
-        <v>141</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>11442272</v>
       </c>
@@ -8707,19 +8703,19 @@
         <v>44817</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>11441702</v>
       </c>
@@ -8730,16 +8726,16 @@
         <v>44817</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>11436793</v>
       </c>
@@ -8750,19 +8746,19 @@
         <v>44810</v>
       </c>
       <c r="E8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" t="s">
         <v>147</v>
-      </c>
-      <c r="F8" t="s">
-        <v>148</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>11435820</v>
       </c>
@@ -8773,19 +8769,19 @@
         <v>44810</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>11435448</v>
       </c>
@@ -8796,19 +8792,19 @@
         <v>44810</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>11431955</v>
       </c>
@@ -8819,19 +8815,19 @@
         <v>44803</v>
       </c>
       <c r="E11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11430398</v>
       </c>
@@ -8842,19 +8838,19 @@
         <v>44803</v>
       </c>
       <c r="E12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" t="s">
         <v>156</v>
-      </c>
-      <c r="F12" t="s">
-        <v>157</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>11430141</v>
       </c>
@@ -8865,19 +8861,19 @@
         <v>44803</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G13">
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11430085</v>
       </c>
@@ -8888,19 +8884,19 @@
         <v>44803</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>11425523</v>
       </c>
@@ -8911,19 +8907,19 @@
         <v>44796</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>11423621</v>
       </c>
@@ -8934,19 +8930,19 @@
         <v>44796</v>
       </c>
       <c r="E16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" t="s">
         <v>165</v>
-      </c>
-      <c r="F16" t="s">
-        <v>166</v>
       </c>
       <c r="G16">
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>11423616</v>
       </c>
@@ -8957,19 +8953,19 @@
         <v>44796</v>
       </c>
       <c r="E17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G17">
         <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>11423520</v>
       </c>
@@ -8980,19 +8976,19 @@
         <v>44796</v>
       </c>
       <c r="E18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>11423152</v>
       </c>
@@ -9003,16 +8999,16 @@
         <v>44796</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G19">
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>11422669</v>
       </c>
@@ -9023,19 +9019,19 @@
         <v>44796</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G20">
         <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>11422373</v>
       </c>
@@ -9046,19 +9042,19 @@
         <v>44796</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G21">
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>11417054</v>
       </c>
@@ -9069,19 +9065,19 @@
         <v>44789</v>
       </c>
       <c r="E22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G22">
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>11416239</v>
       </c>
@@ -9092,19 +9088,19 @@
         <v>44789</v>
       </c>
       <c r="E23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>11416075</v>
       </c>
@@ -9115,19 +9111,19 @@
         <v>44789</v>
       </c>
       <c r="E24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G24">
         <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>11416067</v>
       </c>
@@ -9138,19 +9134,19 @@
         <v>44789</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G25">
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>11415880</v>
       </c>
@@ -9161,19 +9157,19 @@
         <v>44789</v>
       </c>
       <c r="E26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G26">
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>11415808</v>
       </c>
@@ -9184,21 +9180,21 @@
         <v>44789</v>
       </c>
       <c r="E27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G27">
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C28" s="20">
         <v>44537</v>
@@ -9207,19 +9203,19 @@
         <v>44782</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G28">
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>11412511</v>
       </c>
@@ -9230,16 +9226,16 @@
         <v>44782</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G29">
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
